--- a/public/template/Mahasiswi.xlsx
+++ b/public/template/Mahasiswi.xlsx
@@ -1223,7 +1223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="195">
   <si>
     <t>NIM</t>
   </si>
@@ -1534,13 +1534,7 @@
     <t>BUDI AYAH</t>
   </si>
   <si>
-    <t>PNS</t>
-  </si>
-  <si>
     <t>BUDI IBU</t>
-  </si>
-  <si>
-    <t>Ibu Rumah Tangga</t>
   </si>
   <si>
     <t>WALI KELUARGA</t>
@@ -2536,7 +2530,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2593,9 +2587,6 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3141,8 +3132,8 @@
   <sheetPr/>
   <dimension ref="A1:BB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="AG2" workbookViewId="0">
+      <selection activeCell="AG10" sqref="AG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -3170,6 +3161,7 @@
     <col min="31" max="31" width="11.4285714285714"/>
     <col min="35" max="35" width="20.5714285714286" customWidth="1"/>
     <col min="37" max="37" width="11.4285714285714"/>
+    <col min="40" max="40" width="10.5714285714286"/>
     <col min="42" max="42" width="11.4285714285714"/>
     <col min="45" max="45" width="17.1428571428571" customWidth="1"/>
     <col min="46" max="46" width="12.5714285714286" customWidth="1"/>
@@ -3416,7 +3408,7 @@
       <c r="X2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Y2" s="21" t="s">
+      <c r="Y2" s="20" t="s">
         <v>71</v>
       </c>
       <c r="Z2" s="12" t="s">
@@ -3521,7 +3513,7 @@
       <c r="E3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="21" t="s">
         <v>93</v>
       </c>
       <c r="G3" s="3">
@@ -3533,7 +3525,7 @@
       <c r="I3" s="3">
         <v>5</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="21" t="s">
         <v>94</v>
       </c>
       <c r="K3" s="3" t="s">
@@ -3588,7 +3580,7 @@
         <v>1</v>
       </c>
       <c r="AB3" s="3"/>
-      <c r="AC3" s="22" t="s">
+      <c r="AC3" s="21" t="s">
         <v>101</v>
       </c>
       <c r="AD3" s="3" t="s">
@@ -3600,17 +3592,17 @@
       <c r="AF3" s="3">
         <v>2</v>
       </c>
-      <c r="AG3" s="3" t="s">
+      <c r="AG3" s="3">
+        <v>2</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>11</v>
+      </c>
+      <c r="AI3" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="AH3" s="3">
-        <v>5000000</v>
-      </c>
-      <c r="AI3" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="AK3" s="5">
         <v>27524</v>
@@ -3618,14 +3610,14 @@
       <c r="AL3" s="3">
         <v>3</v>
       </c>
-      <c r="AM3" s="3" t="s">
-        <v>105</v>
+      <c r="AM3" s="3">
+        <v>2</v>
       </c>
       <c r="AN3" s="3">
-        <v>2000000</v>
+        <v>11</v>
       </c>
       <c r="AO3" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AP3" s="5">
         <v>31362</v>
@@ -3634,31 +3626,31 @@
         <v>3</v>
       </c>
       <c r="AR3" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AS3" s="3">
-        <v>3000000</v>
+        <v>105</v>
+      </c>
+      <c r="AS3" s="15" t="s">
+        <v>83</v>
       </c>
       <c r="AT3" s="16" t="s">
         <v>84</v>
       </c>
       <c r="AU3" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="AV3" s="20">
+        <v>106</v>
+      </c>
+      <c r="AV3" s="19">
         <v>21</v>
       </c>
-      <c r="AW3" s="20">
+      <c r="AW3" s="19">
         <v>2001</v>
       </c>
       <c r="AX3" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AY3" s="16" t="s">
         <v>84</v>
       </c>
       <c r="AZ3" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BA3" s="3">
         <v>1</v>
@@ -3672,19 +3664,19 @@
         <v>9999999992</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="21" t="s">
         <v>112</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>114</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
@@ -3695,8 +3687,8 @@
       <c r="I4" s="3">
         <v>1</v>
       </c>
-      <c r="J4" s="22" t="s">
-        <v>115</v>
+      <c r="J4" s="21" t="s">
+        <v>113</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>62</v>
@@ -3711,7 +3703,7 @@
         <v>20221</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P4" s="3">
         <v>2</v>
@@ -3720,7 +3712,7 @@
         <v>2</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="S4" s="3" t="s">
         <v>67</v>
@@ -3735,7 +3727,7 @@
         <v>1</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="X4" s="3">
         <v>2121457</v>
@@ -3744,17 +3736,17 @@
         <v>82345678901</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AA4" s="3">
         <v>0</v>
       </c>
       <c r="AB4" s="3"/>
-      <c r="AC4" s="22" t="s">
+      <c r="AC4" s="21" t="s">
         <v>101</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AE4" s="5">
         <v>27626</v>
@@ -3762,17 +3754,17 @@
       <c r="AF4" s="3">
         <v>3</v>
       </c>
-      <c r="AG4" s="3" t="s">
-        <v>107</v>
+      <c r="AG4" s="3">
+        <v>1</v>
       </c>
       <c r="AH4" s="3">
-        <v>7000000</v>
-      </c>
-      <c r="AI4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI4" s="21" t="s">
         <v>101</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AK4" s="5">
         <v>28592</v>
@@ -3780,14 +3772,14 @@
       <c r="AL4" s="3">
         <v>2</v>
       </c>
-      <c r="AM4" s="3" t="s">
-        <v>105</v>
+      <c r="AM4" s="3">
+        <v>3</v>
       </c>
       <c r="AN4" s="3">
-        <v>3000000</v>
+        <v>12</v>
       </c>
       <c r="AO4" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AP4" s="5">
         <v>32421</v>
@@ -3796,31 +3788,31 @@
         <v>2</v>
       </c>
       <c r="AR4" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AS4" s="3">
-        <v>4000000</v>
+        <v>105</v>
+      </c>
+      <c r="AS4" s="15" t="s">
+        <v>83</v>
       </c>
       <c r="AT4" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AU4" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="AV4" s="20">
+      <c r="AV4" s="19">
         <v>21</v>
       </c>
-      <c r="AW4" s="20">
+      <c r="AW4" s="19">
         <v>2002</v>
       </c>
       <c r="AX4" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AY4" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AZ4" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BA4" s="3">
         <v>1</v>
@@ -3834,19 +3826,19 @@
         <v>9999999993</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="22" t="s">
-        <v>128</v>
+      <c r="F5" s="21" t="s">
+        <v>126</v>
       </c>
       <c r="G5" s="3">
         <v>1</v>
@@ -3857,8 +3849,8 @@
       <c r="I5" s="3">
         <v>4</v>
       </c>
-      <c r="J5" s="22" t="s">
-        <v>129</v>
+      <c r="J5" s="21" t="s">
+        <v>127</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>62</v>
@@ -3873,7 +3865,7 @@
         <v>20222</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P5" s="3">
         <v>3</v>
@@ -3882,7 +3874,7 @@
         <v>1</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="S5" s="3" t="s">
         <v>97</v>
@@ -3897,7 +3889,7 @@
         <v>1</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="X5" s="3">
         <v>2121458</v>
@@ -3906,17 +3898,17 @@
         <v>83456789012</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AA5" s="3">
         <v>1</v>
       </c>
       <c r="AB5" s="3"/>
-      <c r="AC5" s="22" t="s">
+      <c r="AC5" s="21" t="s">
         <v>101</v>
       </c>
       <c r="AD5" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AE5" s="5">
         <v>27758</v>
@@ -3924,17 +3916,17 @@
       <c r="AF5" s="3">
         <v>2</v>
       </c>
-      <c r="AG5" s="3" t="s">
-        <v>103</v>
+      <c r="AG5" s="3">
+        <v>1</v>
       </c>
       <c r="AH5" s="3">
-        <v>8000000</v>
-      </c>
-      <c r="AI5" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI5" s="21" t="s">
         <v>101</v>
       </c>
       <c r="AJ5" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AK5" s="5">
         <v>29373</v>
@@ -3942,14 +3934,14 @@
       <c r="AL5" s="3">
         <v>3</v>
       </c>
-      <c r="AM5" s="3" t="s">
-        <v>105</v>
+      <c r="AM5" s="3">
+        <v>2</v>
       </c>
       <c r="AN5" s="3">
-        <v>2500000</v>
+        <v>12</v>
       </c>
       <c r="AO5" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AP5" s="5">
         <v>31667</v>
@@ -3958,31 +3950,31 @@
         <v>2</v>
       </c>
       <c r="AR5" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AS5" s="3">
-        <v>5000000</v>
+        <v>105</v>
+      </c>
+      <c r="AS5" s="15" t="s">
+        <v>83</v>
       </c>
       <c r="AT5" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AU5" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="AV5" s="20">
+      <c r="AV5" s="19">
         <v>21</v>
       </c>
-      <c r="AW5" s="20">
+      <c r="AW5" s="19">
         <v>2003</v>
       </c>
       <c r="AX5" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AY5" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AZ5" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BA5" s="3">
         <v>1</v>
@@ -3991,24 +3983,24 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="6" ht="45" spans="1:54">
+    <row r="6" ht="30" spans="1:54">
       <c r="A6" s="3">
         <v>9999999994</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="E6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="21" t="s">
         <v>139</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>141</v>
       </c>
       <c r="G6" s="3">
         <v>2</v>
@@ -4019,8 +4011,8 @@
       <c r="I6" s="3">
         <v>5</v>
       </c>
-      <c r="J6" s="22" t="s">
-        <v>142</v>
+      <c r="J6" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>62</v>
@@ -4035,7 +4027,7 @@
         <v>20221</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P6" s="3">
         <v>1</v>
@@ -4044,7 +4036,7 @@
         <v>2</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="S6" s="3" t="s">
         <v>67</v>
@@ -4068,17 +4060,17 @@
         <v>84567890123</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AA6" s="3">
         <v>0</v>
       </c>
       <c r="AB6" s="3"/>
-      <c r="AC6" s="22" t="s">
+      <c r="AC6" s="21" t="s">
         <v>101</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AE6" s="5">
         <v>26623</v>
@@ -4086,32 +4078,32 @@
       <c r="AF6" s="3">
         <v>1</v>
       </c>
-      <c r="AG6" s="3" t="s">
-        <v>107</v>
+      <c r="AG6" s="3">
+        <v>2</v>
       </c>
       <c r="AH6" s="3">
-        <v>6000000</v>
-      </c>
-      <c r="AI6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI6" s="21" t="s">
         <v>101</v>
       </c>
       <c r="AJ6" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AK6" s="5">
         <v>27409</v>
       </c>
       <c r="AL6" s="3">
-        <v>2</v>
-      </c>
-      <c r="AM6" s="3" t="s">
-        <v>105</v>
+        <v>4</v>
+      </c>
+      <c r="AM6" s="3">
+        <v>1</v>
       </c>
       <c r="AN6" s="3">
-        <v>2500000</v>
+        <v>11</v>
       </c>
       <c r="AO6" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AP6" s="5">
         <v>32489</v>
@@ -4120,31 +4112,31 @@
         <v>3</v>
       </c>
       <c r="AR6" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AS6" s="3">
-        <v>3500000</v>
+        <v>105</v>
+      </c>
+      <c r="AS6" s="15" t="s">
+        <v>83</v>
       </c>
       <c r="AT6" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AU6" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="AV6" s="19">
+        <v>21</v>
+      </c>
+      <c r="AW6" s="19">
+        <v>2004</v>
+      </c>
+      <c r="AX6" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="AY6" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ6" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="AV6" s="20">
-        <v>21</v>
-      </c>
-      <c r="AW6" s="20">
-        <v>2004</v>
-      </c>
-      <c r="AX6" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="AY6" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="AZ6" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="BA6" s="3">
         <v>1</v>
@@ -4153,24 +4145,24 @@
         <v>5500000</v>
       </c>
     </row>
-    <row r="7" ht="45" spans="1:54">
+    <row r="7" ht="30" spans="1:54">
       <c r="A7" s="3">
         <v>9999999995</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="22" t="s">
-        <v>153</v>
+      <c r="F7" s="21" t="s">
+        <v>151</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
@@ -4181,8 +4173,8 @@
       <c r="I7" s="3">
         <v>1</v>
       </c>
-      <c r="J7" s="22" t="s">
-        <v>154</v>
+      <c r="J7" s="21" t="s">
+        <v>152</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>62</v>
@@ -4197,7 +4189,7 @@
         <v>20222</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="P7" s="3">
         <v>2</v>
@@ -4206,7 +4198,7 @@
         <v>3</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="S7" s="3" t="s">
         <v>97</v>
@@ -4221,7 +4213,7 @@
         <v>1</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="X7" s="3">
         <v>2121460</v>
@@ -4230,17 +4222,17 @@
         <v>85678901234</v>
       </c>
       <c r="Z7" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD7" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="AA7" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="AD7" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="AE7" s="5">
         <v>25673</v>
@@ -4248,32 +4240,32 @@
       <c r="AF7" s="3">
         <v>2</v>
       </c>
-      <c r="AG7" s="3" t="s">
-        <v>107</v>
+      <c r="AG7" s="3">
+        <v>3</v>
       </c>
       <c r="AH7" s="3">
-        <v>7500000</v>
-      </c>
-      <c r="AI7" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI7" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ7" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="AJ7" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="AK7" s="5">
         <v>27475</v>
       </c>
       <c r="AL7" s="3">
-        <v>3</v>
-      </c>
-      <c r="AM7" s="3" t="s">
-        <v>105</v>
+        <v>4</v>
+      </c>
+      <c r="AM7" s="3">
+        <v>2</v>
       </c>
       <c r="AN7" s="3">
-        <v>2000000</v>
+        <v>14</v>
       </c>
       <c r="AO7" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AP7" s="5">
         <v>31197</v>
@@ -4282,10 +4274,10 @@
         <v>1</v>
       </c>
       <c r="AR7" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AS7" s="3">
-        <v>4500000</v>
+        <v>12</v>
       </c>
       <c r="AT7" s="16" t="s">
         <v>84</v>
@@ -4293,20 +4285,20 @@
       <c r="AU7" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="AV7" s="20">
+      <c r="AV7" s="19">
         <v>21</v>
       </c>
-      <c r="AW7" s="20">
+      <c r="AW7" s="19">
         <v>2005</v>
       </c>
       <c r="AX7" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AY7" s="16" t="s">
         <v>84</v>
       </c>
       <c r="AZ7" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BA7" s="3">
         <v>1</v>
@@ -4315,24 +4307,24 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="8" ht="45" spans="1:54">
+    <row r="8" ht="30" spans="1:54">
       <c r="A8" s="3">
         <v>9999999996</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="E8" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="21" t="s">
         <v>164</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>166</v>
       </c>
       <c r="G8" s="3">
         <v>1</v>
@@ -4343,8 +4335,8 @@
       <c r="I8" s="3">
         <v>5</v>
       </c>
-      <c r="J8" s="22" t="s">
-        <v>167</v>
+      <c r="J8" s="21" t="s">
+        <v>165</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>62</v>
@@ -4359,7 +4351,7 @@
         <v>20221</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P8" s="3">
         <v>1</v>
@@ -4368,7 +4360,7 @@
         <v>1</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>67</v>
@@ -4392,17 +4384,17 @@
         <v>86789012345</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AA8" s="3">
         <v>1</v>
       </c>
       <c r="AB8" s="3"/>
-      <c r="AC8" s="22" t="s">
-        <v>158</v>
+      <c r="AC8" s="21" t="s">
+        <v>156</v>
       </c>
       <c r="AD8" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AE8" s="5">
         <v>25932</v>
@@ -4410,32 +4402,32 @@
       <c r="AF8" s="3">
         <v>2</v>
       </c>
-      <c r="AG8" s="3" t="s">
-        <v>107</v>
+      <c r="AG8" s="3">
+        <v>1</v>
       </c>
       <c r="AH8" s="3">
-        <v>9000000</v>
-      </c>
-      <c r="AI8" s="22" t="s">
-        <v>158</v>
+        <v>12</v>
+      </c>
+      <c r="AI8" s="21" t="s">
+        <v>156</v>
       </c>
       <c r="AJ8" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AK8" s="5">
         <v>27716</v>
       </c>
       <c r="AL8" s="3">
-        <v>3</v>
-      </c>
-      <c r="AM8" s="3" t="s">
-        <v>105</v>
+        <v>4</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>1</v>
       </c>
       <c r="AN8" s="3">
-        <v>3000000</v>
+        <v>11</v>
       </c>
       <c r="AO8" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AP8" s="5">
         <v>33105</v>
@@ -4444,31 +4436,31 @@
         <v>2</v>
       </c>
       <c r="AR8" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AS8" s="3">
-        <v>6000000</v>
+        <v>13</v>
       </c>
       <c r="AT8" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AU8" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="AV8" s="19">
+        <v>21</v>
+      </c>
+      <c r="AW8" s="19">
+        <v>2006</v>
+      </c>
+      <c r="AX8" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="AY8" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AZ8" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="AV8" s="20">
-        <v>21</v>
-      </c>
-      <c r="AW8" s="20">
-        <v>2006</v>
-      </c>
-      <c r="AX8" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="AY8" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="AZ8" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="BA8" s="3">
         <v>1</v>
@@ -4477,24 +4469,24 @@
         <v>8000000</v>
       </c>
     </row>
-    <row r="9" ht="45" spans="1:54">
+    <row r="9" ht="30" spans="1:54">
       <c r="A9" s="3">
         <v>9999999997</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>177</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="22" t="s">
-        <v>178</v>
+      <c r="F9" s="21" t="s">
+        <v>176</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
@@ -4505,8 +4497,8 @@
       <c r="I9" s="3">
         <v>1</v>
       </c>
-      <c r="J9" s="22" t="s">
-        <v>179</v>
+      <c r="J9" s="21" t="s">
+        <v>177</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>62</v>
@@ -4521,7 +4513,7 @@
         <v>20222</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P9" s="3">
         <v>2</v>
@@ -4530,7 +4522,7 @@
         <v>3</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>97</v>
@@ -4545,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="X9" s="3">
         <v>2121462</v>
@@ -4554,17 +4546,17 @@
         <v>87890123456</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AA9" s="3">
         <v>0</v>
       </c>
       <c r="AB9" s="3"/>
-      <c r="AC9" s="22" t="s">
-        <v>158</v>
+      <c r="AC9" s="21" t="s">
+        <v>156</v>
       </c>
       <c r="AD9" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AE9" s="5">
         <v>26368</v>
@@ -4572,17 +4564,17 @@
       <c r="AF9" s="3">
         <v>3</v>
       </c>
-      <c r="AG9" s="3" t="s">
-        <v>103</v>
+      <c r="AG9" s="3">
+        <v>2</v>
       </c>
       <c r="AH9" s="3">
-        <v>7000000</v>
-      </c>
-      <c r="AI9" s="22" t="s">
-        <v>158</v>
+        <v>11</v>
+      </c>
+      <c r="AI9" s="21" t="s">
+        <v>156</v>
       </c>
       <c r="AJ9" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AK9" s="5">
         <v>27559</v>
@@ -4590,14 +4582,14 @@
       <c r="AL9" s="3">
         <v>2</v>
       </c>
-      <c r="AM9" s="3" t="s">
-        <v>105</v>
+      <c r="AM9" s="3">
+        <v>1</v>
       </c>
       <c r="AN9" s="3">
-        <v>3500000</v>
+        <v>11</v>
       </c>
       <c r="AO9" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AP9" s="5">
         <v>31332</v>
@@ -4606,31 +4598,31 @@
         <v>2</v>
       </c>
       <c r="AR9" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AS9" s="3">
-        <v>4000000</v>
+        <v>12</v>
       </c>
       <c r="AT9" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AU9" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="AV9" s="20">
+      <c r="AV9" s="19">
         <v>21</v>
       </c>
-      <c r="AW9" s="20">
+      <c r="AW9" s="19">
         <v>2007</v>
       </c>
       <c r="AX9" s="19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AY9" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AZ9" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BA9" s="3">
         <v>1</v>
@@ -4644,19 +4636,19 @@
         <v>9999999998</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>190</v>
+        <v>111</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>188</v>
       </c>
       <c r="G10" s="3">
         <v>2</v>
@@ -4667,8 +4659,8 @@
       <c r="I10" s="3">
         <v>4</v>
       </c>
-      <c r="J10" s="22" t="s">
-        <v>191</v>
+      <c r="J10" s="21" t="s">
+        <v>189</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>62</v>
@@ -4683,7 +4675,7 @@
         <v>20221</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="P10" s="3">
         <v>3</v>
@@ -4716,17 +4708,17 @@
         <v>88901234567</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AA10" s="3">
         <v>1</v>
       </c>
       <c r="AB10" s="3"/>
-      <c r="AC10" s="22" t="s">
-        <v>158</v>
+      <c r="AC10" s="21" t="s">
+        <v>156</v>
       </c>
       <c r="AD10" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AE10" s="5">
         <v>25058</v>
@@ -4734,17 +4726,17 @@
       <c r="AF10" s="3">
         <v>2</v>
       </c>
-      <c r="AG10" s="3" t="s">
-        <v>103</v>
+      <c r="AG10" s="3">
+        <v>2</v>
       </c>
       <c r="AH10" s="3">
-        <v>5000000</v>
-      </c>
-      <c r="AI10" s="22" t="s">
-        <v>158</v>
+        <v>13</v>
+      </c>
+      <c r="AI10" s="21" t="s">
+        <v>156</v>
       </c>
       <c r="AJ10" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AK10" s="5">
         <v>26597</v>
@@ -4752,14 +4744,14 @@
       <c r="AL10" s="3">
         <v>1</v>
       </c>
-      <c r="AM10" s="3" t="s">
-        <v>105</v>
+      <c r="AM10" s="3">
+        <v>2</v>
       </c>
       <c r="AN10" s="3">
-        <v>3000000</v>
+        <v>11</v>
       </c>
       <c r="AO10" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AP10" s="5">
         <v>29231</v>
@@ -4768,31 +4760,31 @@
         <v>3</v>
       </c>
       <c r="AR10" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AS10" s="3">
-        <v>2000000</v>
+        <v>12</v>
       </c>
       <c r="AT10" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AU10" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="AV10" s="19">
+        <v>21</v>
+      </c>
+      <c r="AW10" s="19">
+        <v>2008</v>
+      </c>
+      <c r="AX10" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="AY10" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ10" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="AV10" s="20">
-        <v>21</v>
-      </c>
-      <c r="AW10" s="20">
-        <v>2008</v>
-      </c>
-      <c r="AX10" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="AY10" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="AZ10" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="BA10" s="3">
         <v>1</v>
@@ -4849,8 +4841,8 @@
       <c r="AS11" s="3"/>
       <c r="AT11" s="16"/>
       <c r="AU11" s="19"/>
-      <c r="AV11" s="20"/>
-      <c r="AW11" s="20"/>
+      <c r="AV11" s="19"/>
+      <c r="AW11" s="19"/>
       <c r="AX11" s="19"/>
       <c r="AY11" s="16"/>
       <c r="AZ11" s="3"/>

--- a/public/template/Mahasiswi.xlsx
+++ b/public/template/Mahasiswi.xlsx
@@ -1441,7 +1441,7 @@
     <t>085793578887</t>
   </si>
   <si>
-    <t>someemail@mail.com</t>
+    <t>dimasdzuky99@gmail.com</t>
   </si>
   <si>
     <t>0</t>
@@ -1525,7 +1525,7 @@
     <t>Mobil</t>
   </si>
   <si>
-    <t>budisantoso@mail.com</t>
+    <t>satriayudha262@gmail.com</t>
   </si>
   <si>
     <t>1234567890123450</t>
@@ -1576,7 +1576,7 @@
     <t>Sepeda</t>
   </si>
   <si>
-    <t>sitimaryam@mail.com</t>
+    <t>bathoozar@gmail.com</t>
   </si>
   <si>
     <t>JONATHAN DOE</t>
@@ -1618,7 +1618,7 @@
     <t>Motor</t>
   </si>
   <si>
-    <t>alifahmi@mail.com</t>
+    <t>andikabastian20@gmail.com</t>
   </si>
   <si>
     <t>AMIR AYAH</t>
@@ -1654,7 +1654,7 @@
     <t>Kenanga</t>
   </si>
   <si>
-    <t>rinap@mail.com</t>
+    <t>rinap@gmail.com</t>
   </si>
   <si>
     <t>BAHRI AYAH</t>
@@ -1690,7 +1690,7 @@
     <t>Bunga</t>
   </si>
   <si>
-    <t>andiw@mail.com</t>
+    <t>andiw@gmail.com</t>
   </si>
   <si>
     <t>1234567890123460</t>
@@ -1729,7 +1729,7 @@
     <t>Mawar</t>
   </si>
   <si>
-    <t>dina@mail.com</t>
+    <t>dina@gmail.com</t>
   </si>
   <si>
     <t>SAMSUL AYAH</t>
@@ -1765,7 +1765,7 @@
     <t>Jati</t>
   </si>
   <si>
-    <t>hendra@mail.com</t>
+    <t>hendra@gmail.com</t>
   </si>
   <si>
     <t>JANI AYAH</t>
@@ -1795,7 +1795,7 @@
     <t>123456123456130</t>
   </si>
   <si>
-    <t>sandraputri@mail.com</t>
+    <t>sandraputri@gmail.com</t>
   </si>
   <si>
     <t>AMAN AYAH</t>
@@ -1868,6 +1868,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <name val="Consolas"/>
       <charset val="134"/>
@@ -1881,22 +1897,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2400,10 +2400,10 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -2530,7 +2530,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2570,6 +2570,12 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2579,16 +2585,16 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
@@ -3132,8 +3138,8 @@
   <sheetPr/>
   <dimension ref="A1:BB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG2" workbookViewId="0">
-      <selection activeCell="AG10" sqref="AG10"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -3310,22 +3316,22 @@
       <c r="AT1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="13" t="s">
+      <c r="AU1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="14" t="s">
+      <c r="AV1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="14" t="s">
+      <c r="AW1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="14" t="s">
+      <c r="AX1" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="14" t="s">
+      <c r="AY1" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="14" t="s">
+      <c r="AZ1" s="16" t="s">
         <v>51</v>
       </c>
       <c r="BA1" s="6" t="s">
@@ -3408,7 +3414,7 @@
       <c r="X2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Y2" s="20" t="s">
+      <c r="Y2" s="22" t="s">
         <v>71</v>
       </c>
       <c r="Z2" s="12" t="s">
@@ -3454,43 +3460,43 @@
       <c r="AN2" s="2">
         <v>13</v>
       </c>
-      <c r="AO2" s="15" t="s">
+      <c r="AO2" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="AP2" s="15" t="s">
+      <c r="AP2" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="AQ2" s="15" t="s">
+      <c r="AQ2" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="AR2" s="15" t="s">
+      <c r="AR2" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="AS2" s="15" t="s">
+      <c r="AS2" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="AT2" s="16" t="s">
+      <c r="AT2" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="AU2" s="17" t="s">
+      <c r="AU2" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="AV2" s="18" t="s">
+      <c r="AV2" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="AW2" s="18" t="s">
+      <c r="AW2" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="AX2" s="18" t="s">
+      <c r="AX2" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="AY2" s="16" t="s">
+      <c r="AY2" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="AZ2" s="15" t="s">
+      <c r="AZ2" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="BA2" s="15">
+      <c r="BA2" s="17">
         <v>1</v>
       </c>
       <c r="BB2" s="2">
@@ -3513,7 +3519,7 @@
       <c r="E3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="23" t="s">
         <v>93</v>
       </c>
       <c r="G3" s="3">
@@ -3525,7 +3531,7 @@
       <c r="I3" s="3">
         <v>5</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="23" t="s">
         <v>94</v>
       </c>
       <c r="K3" s="3" t="s">
@@ -3573,14 +3579,14 @@
       <c r="Y3" s="3">
         <v>81234567890</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="Z3" s="13" t="s">
         <v>100</v>
       </c>
       <c r="AA3" s="3">
         <v>1</v>
       </c>
       <c r="AB3" s="3"/>
-      <c r="AC3" s="21" t="s">
+      <c r="AC3" s="23" t="s">
         <v>101</v>
       </c>
       <c r="AD3" s="3" t="s">
@@ -3598,7 +3604,7 @@
       <c r="AH3" s="3">
         <v>11</v>
       </c>
-      <c r="AI3" s="21" t="s">
+      <c r="AI3" s="23" t="s">
         <v>101</v>
       </c>
       <c r="AJ3" s="3" t="s">
@@ -3628,25 +3634,25 @@
       <c r="AR3" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AS3" s="15" t="s">
+      <c r="AS3" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="AT3" s="16" t="s">
+      <c r="AT3" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="AU3" s="19" t="s">
+      <c r="AU3" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="AV3" s="19">
+      <c r="AV3" s="21">
         <v>21</v>
       </c>
-      <c r="AW3" s="19">
+      <c r="AW3" s="21">
         <v>2001</v>
       </c>
-      <c r="AX3" s="19" t="s">
+      <c r="AX3" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="AY3" s="16" t="s">
+      <c r="AY3" s="18" t="s">
         <v>84</v>
       </c>
       <c r="AZ3" s="3" t="s">
@@ -3675,7 +3681,7 @@
       <c r="E4" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="23" t="s">
         <v>112</v>
       </c>
       <c r="G4" s="3">
@@ -3687,7 +3693,7 @@
       <c r="I4" s="3">
         <v>1</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="23" t="s">
         <v>113</v>
       </c>
       <c r="K4" s="3" t="s">
@@ -3735,14 +3741,14 @@
       <c r="Y4" s="3">
         <v>82345678901</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="Z4" s="14" t="s">
         <v>117</v>
       </c>
       <c r="AA4" s="3">
         <v>0</v>
       </c>
       <c r="AB4" s="3"/>
-      <c r="AC4" s="21" t="s">
+      <c r="AC4" s="23" t="s">
         <v>101</v>
       </c>
       <c r="AD4" s="3" t="s">
@@ -3760,7 +3766,7 @@
       <c r="AH4" s="3">
         <v>12</v>
       </c>
-      <c r="AI4" s="21" t="s">
+      <c r="AI4" s="23" t="s">
         <v>101</v>
       </c>
       <c r="AJ4" s="3" t="s">
@@ -3790,32 +3796,32 @@
       <c r="AR4" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AS4" s="15" t="s">
+      <c r="AS4" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="AT4" s="16" t="s">
+      <c r="AT4" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="AU4" s="19" t="s">
+      <c r="AU4" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="AV4" s="19">
+      <c r="AV4" s="21">
         <v>21</v>
       </c>
-      <c r="AW4" s="19">
+      <c r="AW4" s="21">
         <v>2002</v>
       </c>
-      <c r="AX4" s="19" t="s">
+      <c r="AX4" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="AY4" s="16" t="s">
+      <c r="AY4" s="18" t="s">
         <v>121</v>
       </c>
       <c r="AZ4" s="3" t="s">
         <v>108</v>
       </c>
       <c r="BA4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB4" s="3">
         <v>6500000</v>
@@ -3837,7 +3843,7 @@
       <c r="E5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="23" t="s">
         <v>126</v>
       </c>
       <c r="G5" s="3">
@@ -3849,7 +3855,7 @@
       <c r="I5" s="3">
         <v>4</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="23" t="s">
         <v>127</v>
       </c>
       <c r="K5" s="3" t="s">
@@ -3897,14 +3903,14 @@
       <c r="Y5" s="3">
         <v>83456789012</v>
       </c>
-      <c r="Z5" s="3" t="s">
+      <c r="Z5" s="14" t="s">
         <v>131</v>
       </c>
       <c r="AA5" s="3">
         <v>1</v>
       </c>
       <c r="AB5" s="3"/>
-      <c r="AC5" s="21" t="s">
+      <c r="AC5" s="23" t="s">
         <v>101</v>
       </c>
       <c r="AD5" s="3" t="s">
@@ -3922,7 +3928,7 @@
       <c r="AH5" s="3">
         <v>14</v>
       </c>
-      <c r="AI5" s="21" t="s">
+      <c r="AI5" s="23" t="s">
         <v>101</v>
       </c>
       <c r="AJ5" s="3" t="s">
@@ -3952,32 +3958,32 @@
       <c r="AR5" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AS5" s="15" t="s">
+      <c r="AS5" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="AT5" s="16" t="s">
+      <c r="AT5" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="AU5" s="19" t="s">
+      <c r="AU5" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="AV5" s="19">
+      <c r="AV5" s="21">
         <v>21</v>
       </c>
-      <c r="AW5" s="19">
+      <c r="AW5" s="21">
         <v>2003</v>
       </c>
-      <c r="AX5" s="19" t="s">
+      <c r="AX5" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="AY5" s="16" t="s">
+      <c r="AY5" s="18" t="s">
         <v>134</v>
       </c>
       <c r="AZ5" s="3" t="s">
         <v>108</v>
       </c>
       <c r="BA5" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BB5" s="3">
         <v>7000000</v>
@@ -3999,7 +4005,7 @@
       <c r="E6" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="23" t="s">
         <v>139</v>
       </c>
       <c r="G6" s="3">
@@ -4011,7 +4017,7 @@
       <c r="I6" s="3">
         <v>5</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="J6" s="23" t="s">
         <v>140</v>
       </c>
       <c r="K6" s="3" t="s">
@@ -4059,14 +4065,14 @@
       <c r="Y6" s="3">
         <v>84567890123</v>
       </c>
-      <c r="Z6" s="3" t="s">
+      <c r="Z6" s="13" t="s">
         <v>143</v>
       </c>
       <c r="AA6" s="3">
         <v>0</v>
       </c>
       <c r="AB6" s="3"/>
-      <c r="AC6" s="21" t="s">
+      <c r="AC6" s="23" t="s">
         <v>101</v>
       </c>
       <c r="AD6" s="3" t="s">
@@ -4084,7 +4090,7 @@
       <c r="AH6" s="3">
         <v>12</v>
       </c>
-      <c r="AI6" s="21" t="s">
+      <c r="AI6" s="23" t="s">
         <v>101</v>
       </c>
       <c r="AJ6" s="3" t="s">
@@ -4114,32 +4120,32 @@
       <c r="AR6" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AS6" s="15" t="s">
+      <c r="AS6" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="AT6" s="16" t="s">
+      <c r="AT6" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="AU6" s="19" t="s">
+      <c r="AU6" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="AV6" s="19">
+      <c r="AV6" s="21">
         <v>21</v>
       </c>
-      <c r="AW6" s="19">
+      <c r="AW6" s="21">
         <v>2004</v>
       </c>
-      <c r="AX6" s="19" t="s">
+      <c r="AX6" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="AY6" s="16" t="s">
+      <c r="AY6" s="18" t="s">
         <v>121</v>
       </c>
       <c r="AZ6" s="3" t="s">
         <v>108</v>
       </c>
       <c r="BA6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB6" s="3">
         <v>5500000</v>
@@ -4161,7 +4167,7 @@
       <c r="E7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="23" t="s">
         <v>151</v>
       </c>
       <c r="G7" s="3">
@@ -4173,7 +4179,7 @@
       <c r="I7" s="3">
         <v>1</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="23" t="s">
         <v>152</v>
       </c>
       <c r="K7" s="3" t="s">
@@ -4221,14 +4227,14 @@
       <c r="Y7" s="3">
         <v>85678901234</v>
       </c>
-      <c r="Z7" s="3" t="s">
+      <c r="Z7" s="13" t="s">
         <v>155</v>
       </c>
       <c r="AA7" s="3">
         <v>1</v>
       </c>
       <c r="AB7" s="3"/>
-      <c r="AC7" s="21" t="s">
+      <c r="AC7" s="23" t="s">
         <v>156</v>
       </c>
       <c r="AD7" s="3" t="s">
@@ -4246,7 +4252,7 @@
       <c r="AH7" s="3">
         <v>12</v>
       </c>
-      <c r="AI7" s="21" t="s">
+      <c r="AI7" s="23" t="s">
         <v>156</v>
       </c>
       <c r="AJ7" s="3" t="s">
@@ -4279,22 +4285,22 @@
       <c r="AS7" s="3">
         <v>12</v>
       </c>
-      <c r="AT7" s="16" t="s">
+      <c r="AT7" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="AU7" s="19" t="s">
+      <c r="AU7" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="AV7" s="19">
+      <c r="AV7" s="21">
         <v>21</v>
       </c>
-      <c r="AW7" s="19">
+      <c r="AW7" s="21">
         <v>2005</v>
       </c>
-      <c r="AX7" s="19" t="s">
+      <c r="AX7" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="AY7" s="16" t="s">
+      <c r="AY7" s="18" t="s">
         <v>84</v>
       </c>
       <c r="AZ7" s="3" t="s">
@@ -4323,7 +4329,7 @@
       <c r="E8" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="23" t="s">
         <v>164</v>
       </c>
       <c r="G8" s="3">
@@ -4335,7 +4341,7 @@
       <c r="I8" s="3">
         <v>5</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="23" t="s">
         <v>165</v>
       </c>
       <c r="K8" s="3" t="s">
@@ -4383,14 +4389,14 @@
       <c r="Y8" s="3">
         <v>86789012345</v>
       </c>
-      <c r="Z8" s="3" t="s">
+      <c r="Z8" s="13" t="s">
         <v>168</v>
       </c>
       <c r="AA8" s="3">
         <v>1</v>
       </c>
       <c r="AB8" s="3"/>
-      <c r="AC8" s="21" t="s">
+      <c r="AC8" s="23" t="s">
         <v>156</v>
       </c>
       <c r="AD8" s="3" t="s">
@@ -4408,7 +4414,7 @@
       <c r="AH8" s="3">
         <v>12</v>
       </c>
-      <c r="AI8" s="21" t="s">
+      <c r="AI8" s="23" t="s">
         <v>156</v>
       </c>
       <c r="AJ8" s="3" t="s">
@@ -4441,22 +4447,22 @@
       <c r="AS8" s="3">
         <v>13</v>
       </c>
-      <c r="AT8" s="16" t="s">
+      <c r="AT8" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="AU8" s="19" t="s">
+      <c r="AU8" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="AV8" s="19">
+      <c r="AV8" s="21">
         <v>21</v>
       </c>
-      <c r="AW8" s="19">
+      <c r="AW8" s="21">
         <v>2006</v>
       </c>
-      <c r="AX8" s="19" t="s">
+      <c r="AX8" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="AY8" s="16" t="s">
+      <c r="AY8" s="18" t="s">
         <v>134</v>
       </c>
       <c r="AZ8" s="3" t="s">
@@ -4485,7 +4491,7 @@
       <c r="E9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="23" t="s">
         <v>176</v>
       </c>
       <c r="G9" s="3">
@@ -4497,7 +4503,7 @@
       <c r="I9" s="3">
         <v>1</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="J9" s="23" t="s">
         <v>177</v>
       </c>
       <c r="K9" s="3" t="s">
@@ -4545,14 +4551,14 @@
       <c r="Y9" s="3">
         <v>87890123456</v>
       </c>
-      <c r="Z9" s="3" t="s">
+      <c r="Z9" s="13" t="s">
         <v>180</v>
       </c>
       <c r="AA9" s="3">
         <v>0</v>
       </c>
       <c r="AB9" s="3"/>
-      <c r="AC9" s="21" t="s">
+      <c r="AC9" s="23" t="s">
         <v>156</v>
       </c>
       <c r="AD9" s="3" t="s">
@@ -4570,7 +4576,7 @@
       <c r="AH9" s="3">
         <v>11</v>
       </c>
-      <c r="AI9" s="21" t="s">
+      <c r="AI9" s="23" t="s">
         <v>156</v>
       </c>
       <c r="AJ9" s="3" t="s">
@@ -4603,22 +4609,22 @@
       <c r="AS9" s="3">
         <v>12</v>
       </c>
-      <c r="AT9" s="16" t="s">
+      <c r="AT9" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="AU9" s="19" t="s">
+      <c r="AU9" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="AV9" s="19">
+      <c r="AV9" s="21">
         <v>21</v>
       </c>
-      <c r="AW9" s="19">
+      <c r="AW9" s="21">
         <v>2007</v>
       </c>
-      <c r="AX9" s="19" t="s">
+      <c r="AX9" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="AY9" s="16" t="s">
+      <c r="AY9" s="18" t="s">
         <v>184</v>
       </c>
       <c r="AZ9" s="3" t="s">
@@ -4647,7 +4653,7 @@
       <c r="E10" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="23" t="s">
         <v>188</v>
       </c>
       <c r="G10" s="3">
@@ -4659,7 +4665,7 @@
       <c r="I10" s="3">
         <v>4</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="J10" s="23" t="s">
         <v>189</v>
       </c>
       <c r="K10" s="3" t="s">
@@ -4707,14 +4713,14 @@
       <c r="Y10" s="3">
         <v>88901234567</v>
       </c>
-      <c r="Z10" s="3" t="s">
+      <c r="Z10" s="13" t="s">
         <v>190</v>
       </c>
       <c r="AA10" s="3">
         <v>1</v>
       </c>
       <c r="AB10" s="3"/>
-      <c r="AC10" s="21" t="s">
+      <c r="AC10" s="23" t="s">
         <v>156</v>
       </c>
       <c r="AD10" s="3" t="s">
@@ -4732,7 +4738,7 @@
       <c r="AH10" s="3">
         <v>13</v>
       </c>
-      <c r="AI10" s="21" t="s">
+      <c r="AI10" s="23" t="s">
         <v>156</v>
       </c>
       <c r="AJ10" s="3" t="s">
@@ -4765,29 +4771,29 @@
       <c r="AS10" s="3">
         <v>12</v>
       </c>
-      <c r="AT10" s="16" t="s">
+      <c r="AT10" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="AU10" s="19" t="s">
+      <c r="AU10" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="AV10" s="19">
+      <c r="AV10" s="21">
         <v>21</v>
       </c>
-      <c r="AW10" s="19">
+      <c r="AW10" s="21">
         <v>2008</v>
       </c>
-      <c r="AX10" s="19" t="s">
+      <c r="AX10" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="AY10" s="16" t="s">
+      <c r="AY10" s="18" t="s">
         <v>184</v>
       </c>
       <c r="AZ10" s="3" t="s">
         <v>108</v>
       </c>
       <c r="BA10" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB10" s="3">
         <v>7000000</v>
@@ -4839,19 +4845,27 @@
       <c r="AQ11" s="3"/>
       <c r="AR11" s="3"/>
       <c r="AS11" s="3"/>
-      <c r="AT11" s="16"/>
-      <c r="AU11" s="19"/>
-      <c r="AV11" s="19"/>
-      <c r="AW11" s="19"/>
-      <c r="AX11" s="19"/>
-      <c r="AY11" s="16"/>
+      <c r="AT11" s="18"/>
+      <c r="AU11" s="21"/>
+      <c r="AV11" s="21"/>
+      <c r="AW11" s="21"/>
+      <c r="AX11" s="21"/>
+      <c r="AY11" s="18"/>
       <c r="AZ11" s="3"/>
       <c r="BA11" s="3"/>
       <c r="BB11" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Z2" r:id="rId3" display="someemail@mail.com" tooltip="mailto:someemail@mail.com"/>
+    <hyperlink ref="Z2" r:id="rId3" display="dimasdzuky99@gmail.com" tooltip="mailto:dimasdzuky99@gmail.com"/>
+    <hyperlink ref="Z3" r:id="rId4" display="satriayudha262@gmail.com"/>
+    <hyperlink ref="Z4" r:id="rId5" display="bathoozar@gmail.com" tooltip="mailto:bathoozar@gmail.com"/>
+    <hyperlink ref="Z5" r:id="rId6" display="andikabastian20@gmail.com" tooltip="mailto:andikabastian20@gmail.com"/>
+    <hyperlink ref="Z6" r:id="rId7" display="rinap@gmail.com"/>
+    <hyperlink ref="Z7" r:id="rId8" display="andiw@gmail.com"/>
+    <hyperlink ref="Z8" r:id="rId9" display="dina@gmail.com"/>
+    <hyperlink ref="Z9" r:id="rId10" display="hendra@gmail.com"/>
+    <hyperlink ref="Z10" r:id="rId11" display="sandraputri@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
